--- a/nutrition spiruline chlorella.xlsx
+++ b/nutrition spiruline chlorella.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Google Drive\Projets\Endless Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Google Drive\Projects\FFF_Free_Food_forever\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{233DB6C4-7060-4B58-81D4-312977597CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E674585-97C8-4F55-9E56-15FFC38DB13E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="3750" windowWidth="21600" windowHeight="11505" xr2:uid="{0B76982E-C080-4B3F-B981-E2E3849ED15C}"/>
+    <workbookView xWindow="13530" yWindow="3015" windowWidth="21600" windowHeight="11505" xr2:uid="{0B76982E-C080-4B3F-B981-E2E3849ED15C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>Vitamin B1</t>
   </si>
@@ -378,12 +378,15 @@
   <si>
     <t>for indicated prots</t>
   </si>
+  <si>
+    <t>spiruline fermented</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,12 +462,6 @@
       <sz val="13"/>
       <color rgb="FF212121"/>
       <name val="Source Sans Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -574,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -645,6 +642,132 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -664,157 +787,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -832,66 +812,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -965,6 +885,36 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -976,6 +926,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1066801</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA08CBD-E47C-419A-91ED-94CDB34B7B5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16383001" y="1333500"/>
+          <a:ext cx="2057400" cy="2119441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1289,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8787BAB-B14A-49EC-8A20-128895A2C677}">
-  <dimension ref="A1:P173"/>
+  <dimension ref="A1:U173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,151 +1301,184 @@
     <col min="4" max="4" width="12" style="23" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="23" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="38"/>
+    <col min="7" max="7" width="9.7109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="32"/>
     <col min="9" max="9" width="11" style="23" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="23" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="23" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="23" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="23"/>
     <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="38"/>
-    <col min="17" max="16384" width="9.140625" style="23"/>
+    <col min="16" max="16" width="9.140625" style="32"/>
+    <col min="17" max="17" width="9.140625" style="23"/>
+    <col min="18" max="18" width="11.28515625" style="63" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="63" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="32" customWidth="1"/>
+    <col min="21" max="21" width="17" style="32" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="24" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="67"/>
+      <c r="E1" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="24" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="71" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="70"/>
+      <c r="N1" s="65"/>
       <c r="O1" s="23"/>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="31" t="s">
+      <c r="R1" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="70"/>
+    </row>
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="31" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="31"/>
       <c r="N2" s="23"/>
       <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35">
         <v>100</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="35">
+      <c r="F3" s="36"/>
+      <c r="G3" s="29">
         <v>50</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="39">
+      <c r="H3" s="30"/>
+      <c r="I3" s="33">
         <v>100</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="21">
         <v>50</v>
       </c>
-      <c r="L3" s="37"/>
+      <c r="L3" s="31"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="35"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="29">
+        <v>50</v>
+      </c>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="38">
         <v>2000</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="45">
+      <c r="D4" s="31"/>
+      <c r="E4" s="39">
         <f>81/28*E3</f>
         <v>289.28571428571428</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46">
-        <f t="shared" ref="F4:G4" si="0">81/28*G3</f>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40">
+        <f t="shared" ref="G4" si="0">81/28*G3</f>
         <v>144.64285714285714</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="44">
+      <c r="H4" s="30"/>
+      <c r="I4" s="38">
         <f>115/28*I3</f>
         <v>410.71428571428567</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21">
-        <f t="shared" ref="J4:K4" si="1">115/28*K3</f>
+        <f t="shared" ref="K4" si="1">115/28*K3</f>
         <v>205.35714285714283</v>
       </c>
-      <c r="L4" s="37"/>
+      <c r="L4" s="31"/>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="39">
+        <v>28</v>
+      </c>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40">
+        <v>300</v>
+      </c>
+      <c r="U4" s="30"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="38">
         <v>50</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="45">
+      <c r="D5" s="31"/>
+      <c r="E5" s="39">
         <f>16/28*E3</f>
         <v>57.142857142857139</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47">
+      <c r="F5" s="40"/>
+      <c r="G5" s="41">
         <f>16/28*G3</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="44">
+      <c r="H5" s="30"/>
+      <c r="I5" s="38">
         <f>16/28*I3</f>
         <v>57.142857142857139</v>
       </c>
@@ -1455,220 +1487,285 @@
         <f>16/28*K3</f>
         <v>28.571428571428569</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="31"/>
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="39">
+        <v>5.74</v>
+      </c>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41">
+        <f>16/28*T3</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="U5" s="30"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="38">
         <v>260</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="44"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="37"/>
+      <c r="L6" s="31"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="39">
+        <v>2.39</v>
+      </c>
+      <c r="S6" s="40"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="30"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="38">
         <v>60</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="31">
         <v>70</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="44"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="37"/>
+      <c r="L7" s="31"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C8" s="44"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="44"/>
+      <c r="R7" s="39">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="38"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="37"/>
+      <c r="L8" s="31"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="44"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="44"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="38"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="37"/>
+      <c r="L9" s="31"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="44"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="44"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="38"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="37"/>
+      <c r="L10" s="31"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C11" s="44"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="44"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="38"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="31"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C12" s="44"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="44"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="38"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="37"/>
+      <c r="L12" s="31"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C13" s="44"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="44"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="38"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="37"/>
+      <c r="L13" s="31"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C14" s="44"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="44"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="38"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="37"/>
+      <c r="L14" s="31"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="44"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="44"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="38"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="37"/>
+      <c r="L15" s="31"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="44"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="44"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="38"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="37"/>
+      <c r="L16" s="31"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="44"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="44"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="30"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
-      <c r="L17" s="37"/>
+      <c r="L17" s="31"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="30"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="44"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="44"/>
+      <c r="P17" s="24"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="30"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="38"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="37"/>
+      <c r="L18" s="31"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
-    </row>
-    <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="R18" s="39"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="43"/>
+    </row>
+    <row r="19" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="72" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="33">
         <v>900</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="44">
         <v>3000</v>
       </c>
       <c r="E19" s="9">
@@ -1678,19 +1775,19 @@
         <f>E19/C19</f>
         <v>0.38</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="42">
         <f>$G$3/$E$3*E19</f>
         <v>171</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="62">
         <f>G19/C19</f>
         <v>0.19</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="45">
         <f>58331/0.6</f>
         <v>97218.333333333343</v>
       </c>
-      <c r="J19" s="43">
+      <c r="J19" s="37">
         <f>I19/C19</f>
         <v>108.02037037037039</v>
       </c>
@@ -1698,15 +1795,15 @@
         <f>$K$3/$I$3*I19</f>
         <v>48609.166666666672</v>
       </c>
-      <c r="L19" s="69">
+      <c r="L19" s="62">
         <f>K19/C19</f>
         <v>54.010185185185193</v>
       </c>
-      <c r="M19" s="68">
+      <c r="M19" s="61">
         <f>G19+K19</f>
         <v>48780.166666666672</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="62">
         <f>M19/C19</f>
         <v>54.200185185185191</v>
       </c>
@@ -1714,29 +1811,44 @@
       <c r="P19" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
+      <c r="R19" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="S19" s="14">
+        <f>R19/D19</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="T19" s="42">
+        <f>T$4/R$4*R19</f>
+        <v>61.071428571428569</v>
+      </c>
+      <c r="U19" s="62">
+        <f>T19/C19</f>
+        <v>6.7857142857142852E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="53"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="14" t="e">
         <f t="shared" ref="F20:F49" si="2">E20/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="48">
-        <f t="shared" ref="G20:G59" si="3">$G$3/$E$3*E20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="69" t="e">
+      <c r="G20" s="42">
+        <f t="shared" ref="G20:G49" si="3">$G$3/$E$3*E20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="62" t="e">
         <f t="shared" ref="H20:H49" si="4">G20/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="43" t="e">
+      <c r="I20" s="33"/>
+      <c r="J20" s="37" t="e">
         <f>I20/C20</f>
         <v>#DIV/0!</v>
       </c>
@@ -1744,90 +1856,110 @@
         <f t="shared" ref="K20:K49" si="5">$K$3/$I$3*I20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="69" t="e">
+      <c r="L20" s="62" t="e">
         <f t="shared" ref="L20:L49" si="6">K20/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="61">
         <f t="shared" ref="M20:M59" si="7">G20+K20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="69" t="e">
+      <c r="N20" s="62" t="e">
         <f t="shared" ref="N20:N49" si="8">M20/C20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="23"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="53"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="14" t="e">
+        <f>R20/D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="42">
+        <f t="shared" ref="T20:T49" si="9">T$4/R$4*R20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="62" t="e">
+        <f t="shared" ref="U20:U49" si="10">T20/P20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="68">
+      <c r="L21" s="62"/>
+      <c r="M21" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N21" s="69" t="e">
+      <c r="N21" s="62" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="23"/>
       <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="46"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="62"/>
+    </row>
+    <row r="22" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="33">
         <v>1.2</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="53">
+      <c r="D22" s="34"/>
+      <c r="E22" s="46">
         <v>2.38</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" si="2"/>
         <v>1.9833333333333334</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="42">
         <f t="shared" si="3"/>
         <v>1.19</v>
       </c>
-      <c r="H22" s="69">
+      <c r="H22" s="62">
         <f t="shared" si="4"/>
         <v>0.9916666666666667</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="33">
         <v>2</v>
       </c>
-      <c r="J22" s="43">
-        <f>I22/C22</f>
+      <c r="J22" s="37">
+        <f t="shared" ref="J22:J33" si="11">I22/C22</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="62">
         <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="61">
         <f t="shared" si="7"/>
         <v>2.19</v>
       </c>
-      <c r="N22" s="69">
+      <c r="N22" s="62">
         <f t="shared" si="8"/>
         <v>1.825</v>
       </c>
@@ -1835,53 +1967,68 @@
       <c r="P22" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="46">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="S22" s="14">
+        <f>R22/C22</f>
+        <v>0.19833333333333333</v>
+      </c>
+      <c r="T22" s="42">
+        <f t="shared" si="9"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U22" s="62">
+        <f>T22/C22</f>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="33">
         <v>1.3</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="53">
+      <c r="D23" s="34"/>
+      <c r="E23" s="46">
         <v>3.67</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" si="2"/>
         <v>2.8230769230769228</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="42">
         <f t="shared" si="3"/>
         <v>1.835</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="62">
         <f t="shared" si="4"/>
         <v>1.4115384615384614</v>
       </c>
       <c r="I23" s="10">
         <v>4.5330000000000004</v>
       </c>
-      <c r="J23" s="43">
-        <f>I23/C23</f>
+      <c r="J23" s="37">
+        <f t="shared" si="11"/>
         <v>3.4869230769230772</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="5"/>
         <v>2.2665000000000002</v>
       </c>
-      <c r="L23" s="69">
+      <c r="L23" s="62">
         <f t="shared" si="6"/>
         <v>1.7434615384615386</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="61">
         <f t="shared" si="7"/>
         <v>4.1014999999999997</v>
       </c>
-      <c r="N23" s="69">
+      <c r="N23" s="62">
         <f t="shared" si="8"/>
         <v>3.1549999999999998</v>
       </c>
@@ -1889,53 +2036,68 @@
       <c r="P23" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="46">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="S23" s="14">
+        <f>R23/C23</f>
+        <v>0.28230769230769232</v>
+      </c>
+      <c r="T23" s="42">
+        <f t="shared" si="9"/>
+        <v>3.9321428571428569</v>
+      </c>
+      <c r="U23" s="62">
+        <f t="shared" ref="U23:U59" si="12">T23/C23</f>
+        <v>3.0247252747252746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="33">
         <v>16</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="53">
+      <c r="D24" s="34"/>
+      <c r="E24" s="46">
         <v>12.82</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" si="2"/>
         <v>0.80125000000000002</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="42">
         <f t="shared" si="3"/>
         <v>6.41</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="62">
         <f t="shared" si="4"/>
         <v>0.40062500000000001</v>
       </c>
       <c r="I24" s="10">
         <v>26.667000000000002</v>
       </c>
-      <c r="J24" s="43">
-        <f>I24/C24</f>
+      <c r="J24" s="37">
+        <f t="shared" si="11"/>
         <v>1.6666875000000001</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="5"/>
         <v>13.333500000000001</v>
       </c>
-      <c r="L24" s="69">
+      <c r="L24" s="62">
         <f t="shared" si="6"/>
         <v>0.83334375000000005</v>
       </c>
-      <c r="M24" s="68">
+      <c r="M24" s="61">
         <f t="shared" si="7"/>
         <v>19.743500000000001</v>
       </c>
-      <c r="N24" s="69">
+      <c r="N24" s="62">
         <f t="shared" si="8"/>
         <v>1.2339687500000001</v>
       </c>
@@ -1943,51 +2105,66 @@
       <c r="P24" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="46">
+        <v>1.28</v>
+      </c>
+      <c r="S24" s="14">
+        <f t="shared" ref="S24:S33" si="13">R24/C24</f>
+        <v>0.08</v>
+      </c>
+      <c r="T24" s="42">
+        <f t="shared" si="9"/>
+        <v>13.714285714285714</v>
+      </c>
+      <c r="U24" s="62">
+        <f t="shared" si="12"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="33">
         <v>5</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="53">
+      <c r="D25" s="34"/>
+      <c r="E25" s="46">
         <v>3.48</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" si="2"/>
         <v>0.69599999999999995</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="42">
         <f t="shared" si="3"/>
         <v>1.74</v>
       </c>
-      <c r="H25" s="69">
+      <c r="H25" s="62">
         <f t="shared" si="4"/>
         <v>0.34799999999999998</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="43">
-        <f>I25/C25</f>
+      <c r="I25" s="33"/>
+      <c r="J25" s="37">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="69">
+      <c r="L25" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="68">
+      <c r="M25" s="61">
         <f t="shared" si="7"/>
         <v>1.74</v>
       </c>
-      <c r="N25" s="69">
+      <c r="N25" s="62">
         <f t="shared" si="8"/>
         <v>0.34799999999999998</v>
       </c>
@@ -1995,51 +2172,64 @@
       <c r="P25" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="46"/>
+      <c r="S25" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="33">
         <v>1.3</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="53">
+      <c r="D26" s="34"/>
+      <c r="E26" s="46">
         <v>0.36399999999999999</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" si="2"/>
         <v>0.27999999999999997</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="42">
         <f t="shared" si="3"/>
         <v>0.182</v>
       </c>
-      <c r="H26" s="69">
+      <c r="H26" s="62">
         <f t="shared" si="4"/>
         <v>0.13999999999999999</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="43">
-        <f>I26/C26</f>
+      <c r="I26" s="33"/>
+      <c r="J26" s="37">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="69">
+      <c r="L26" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M26" s="68">
+      <c r="M26" s="61">
         <f t="shared" si="7"/>
         <v>0.182</v>
       </c>
-      <c r="N26" s="69">
+      <c r="N26" s="62">
         <f t="shared" si="8"/>
         <v>0.13999999999999999</v>
       </c>
@@ -2047,51 +2237,66 @@
       <c r="P26" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="46">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="S26" s="14">
+        <f t="shared" si="13"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="T26" s="42">
+        <f t="shared" si="9"/>
+        <v>0.39</v>
+      </c>
+      <c r="U26" s="62">
+        <f t="shared" si="12"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="33">
         <v>30</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="53">
+      <c r="D27" s="34"/>
+      <c r="E27" s="46">
         <v>94</v>
       </c>
       <c r="F27" s="14">
         <f t="shared" si="2"/>
         <v>3.1333333333333333</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="42">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="62">
         <f t="shared" si="4"/>
         <v>1.5666666666666667</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="43">
-        <f>I27/C27</f>
+      <c r="I27" s="33"/>
+      <c r="J27" s="37">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="69">
+      <c r="L27" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M27" s="68">
+      <c r="M27" s="61">
         <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="N27" s="69">
+      <c r="N27" s="62">
         <f t="shared" si="8"/>
         <v>1.5666666666666667</v>
       </c>
@@ -2099,53 +2304,66 @@
       <c r="P27" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="46"/>
+      <c r="S27" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="33">
         <v>400</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="34">
         <v>1000</v>
       </c>
-      <c r="E28" s="53">
+      <c r="E28" s="46">
         <v>0</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H28" s="69">
+      <c r="H28" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="43">
-        <f>I28/C28</f>
+      <c r="I28" s="47"/>
+      <c r="J28" s="37">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L28" s="69">
+      <c r="L28" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M28" s="68">
+      <c r="M28" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N28" s="69">
+      <c r="N28" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2153,53 +2371,68 @@
       <c r="P28" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="46">
+        <v>9.4</v>
+      </c>
+      <c r="S28" s="14">
+        <f t="shared" si="13"/>
+        <v>2.35E-2</v>
+      </c>
+      <c r="T28" s="42">
+        <f t="shared" si="9"/>
+        <v>100.71428571428571</v>
+      </c>
+      <c r="U28" s="62">
+        <f t="shared" si="12"/>
+        <v>0.25178571428571428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="33">
         <v>2.4</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="53">
+      <c r="D29" s="34"/>
+      <c r="E29" s="46">
         <v>66</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="42">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="62">
         <f t="shared" si="4"/>
         <v>13.75</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="33">
         <v>300</v>
       </c>
-      <c r="J29" s="43">
-        <f>I29/C29</f>
+      <c r="J29" s="37">
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="L29" s="69">
+      <c r="L29" s="62">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="M29" s="68">
+      <c r="M29" s="61">
         <f t="shared" si="7"/>
         <v>183</v>
       </c>
-      <c r="N29" s="69">
+      <c r="N29" s="62">
         <f t="shared" si="8"/>
         <v>76.25</v>
       </c>
@@ -2207,53 +2440,68 @@
       <c r="P29" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="46">
+        <v>0</v>
+      </c>
+      <c r="S29" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="33">
         <v>90</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="53">
+      <c r="D30" s="34"/>
+      <c r="E30" s="46">
         <v>10.1</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" si="2"/>
         <v>0.11222222222222222</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="42">
         <f t="shared" si="3"/>
         <v>5.05</v>
       </c>
-      <c r="H30" s="69">
+      <c r="H30" s="62">
         <f t="shared" si="4"/>
         <v>5.6111111111111112E-2</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="33">
         <v>20</v>
       </c>
-      <c r="J30" s="43">
-        <f>I30/C30</f>
+      <c r="J30" s="37">
+        <f t="shared" si="11"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L30" s="69">
+      <c r="L30" s="62">
         <f t="shared" si="6"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="M30" s="68">
+      <c r="M30" s="61">
         <f t="shared" si="7"/>
         <v>15.05</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="62">
         <f t="shared" si="8"/>
         <v>0.16722222222222222</v>
       </c>
@@ -2261,53 +2509,68 @@
       <c r="P30" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="46">
+        <v>1.01</v>
+      </c>
+      <c r="S30" s="14">
+        <f t="shared" si="13"/>
+        <v>1.1222222222222222E-2</v>
+      </c>
+      <c r="T30" s="42">
+        <f t="shared" si="9"/>
+        <v>10.821428571428571</v>
+      </c>
+      <c r="U30" s="62">
+        <f t="shared" si="12"/>
+        <v>0.12023809523809524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="33">
         <v>15</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="34">
         <v>50</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="46">
         <v>0</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="43">
-        <f>I31/C31</f>
+      <c r="I31" s="33"/>
+      <c r="J31" s="37">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L31" s="69">
+      <c r="L31" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M31" s="68">
+      <c r="M31" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N31" s="69">
+      <c r="N31" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2315,51 +2578,66 @@
       <c r="P31" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="46">
+        <v>0</v>
+      </c>
+      <c r="S31" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="33">
         <v>15</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="53">
+      <c r="D32" s="34"/>
+      <c r="E32" s="46">
         <v>5</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="42">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="62">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="43">
-        <f>I32/C32</f>
+      <c r="I32" s="33"/>
+      <c r="J32" s="37">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L32" s="69">
+      <c r="L32" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M32" s="68">
+      <c r="M32" s="61">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="N32" s="69">
+      <c r="N32" s="62">
         <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
@@ -2367,51 +2645,66 @@
       <c r="P32" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="46">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="S32" s="14">
+        <f t="shared" si="13"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="T32" s="42">
+        <f t="shared" si="9"/>
+        <v>7.2321428571428568</v>
+      </c>
+      <c r="U32" s="62">
+        <f t="shared" si="12"/>
+        <v>0.4821428571428571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="33">
         <v>120</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="53">
+      <c r="D33" s="34"/>
+      <c r="E33" s="46">
         <v>25.5</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" si="2"/>
         <v>0.21249999999999999</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="42">
         <f t="shared" si="3"/>
         <v>12.75</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="62">
         <f t="shared" si="4"/>
         <v>0.10625</v>
       </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="43">
-        <f>I33/C33</f>
+      <c r="I33" s="33"/>
+      <c r="J33" s="37">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L33" s="69">
+      <c r="L33" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M33" s="68">
+      <c r="M33" s="61">
         <f t="shared" si="7"/>
         <v>12.75</v>
       </c>
-      <c r="N33" s="69">
+      <c r="N33" s="62">
         <f t="shared" si="8"/>
         <v>0.10625</v>
       </c>
@@ -2419,63 +2712,86 @@
       <c r="P33" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="43"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="69"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="62"/>
       <c r="O34" s="23"/>
       <c r="P34" s="23"/>
-    </row>
-    <row r="35" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="35"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="62" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="39">
+      <c r="C35" s="33">
         <v>4.7</v>
       </c>
-      <c r="D35" s="40"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="9"/>
       <c r="F35" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="43">
-        <f>I35/C35</f>
+      <c r="I35" s="33"/>
+      <c r="J35" s="37">
+        <f t="shared" ref="J35:J49" si="14">I35/C35</f>
         <v>0</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="69">
+      <c r="L35" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M35" s="68">
+      <c r="M35" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N35" s="69">
+      <c r="N35" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2483,47 +2799,62 @@
       <c r="P35" s="23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="9">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="S35" s="14" t="e">
+        <f t="shared" ref="S35:S64" si="15">R35/P35</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T35" s="42">
+        <f t="shared" si="9"/>
+        <v>1.4571428571428571</v>
+      </c>
+      <c r="U35" s="62">
+        <f t="shared" si="12"/>
+        <v>0.3100303951367781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="C36" s="39">
+      <c r="C36" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D36" s="40"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="9"/>
       <c r="F36" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="43">
-        <f>I36/C36</f>
+      <c r="I36" s="33"/>
+      <c r="J36" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L36" s="69">
+      <c r="L36" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="68">
+      <c r="M36" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N36" s="69">
+      <c r="N36" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2531,16 +2862,29 @@
       <c r="P36" s="23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="9"/>
+      <c r="S36" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T36" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="C37" s="39">
+      <c r="C37" s="33">
         <v>2300</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="34">
         <v>6000</v>
       </c>
       <c r="E37" s="9"/>
@@ -2548,34 +2892,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I37" s="10">
         <v>0</v>
       </c>
-      <c r="J37" s="43">
-        <f>I37/C37</f>
+      <c r="J37" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K37" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L37" s="69">
+      <c r="L37" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M37" s="68">
+      <c r="M37" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N37" s="69">
+      <c r="N37" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2583,16 +2927,31 @@
       <c r="P37" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="9">
+        <v>105</v>
+      </c>
+      <c r="S37" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T37" s="42">
+        <f t="shared" si="9"/>
+        <v>1125</v>
+      </c>
+      <c r="U37" s="62">
+        <f t="shared" si="12"/>
+        <v>0.4891304347826087</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="C38" s="39">
+      <c r="C38" s="33">
         <v>1000</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="34">
         <v>2500</v>
       </c>
       <c r="E38" s="9"/>
@@ -2600,34 +2959,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I38" s="10">
         <v>333</v>
       </c>
-      <c r="J38" s="43">
-        <f>I38/C38</f>
+      <c r="J38" s="37">
+        <f t="shared" si="14"/>
         <v>0.33300000000000002</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="5"/>
         <v>166.5</v>
       </c>
-      <c r="L38" s="69">
+      <c r="L38" s="62">
         <f t="shared" si="6"/>
         <v>0.16650000000000001</v>
       </c>
-      <c r="M38" s="68">
+      <c r="M38" s="61">
         <f t="shared" si="7"/>
         <v>166.5</v>
       </c>
-      <c r="N38" s="69">
+      <c r="N38" s="62">
         <f t="shared" si="8"/>
         <v>0.16650000000000001</v>
       </c>
@@ -2635,16 +2994,31 @@
       <c r="P38" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="9">
+        <v>12</v>
+      </c>
+      <c r="S38" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T38" s="42">
+        <f t="shared" si="9"/>
+        <v>128.57142857142856</v>
+      </c>
+      <c r="U38" s="62">
+        <f t="shared" si="12"/>
+        <v>0.12857142857142856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="39">
+      <c r="C39" s="33">
         <v>700</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="34">
         <v>4000</v>
       </c>
       <c r="E39" s="9"/>
@@ -2652,32 +3026,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="10"/>
-      <c r="J39" s="43">
-        <f>I39/C39</f>
+      <c r="J39" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K39" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L39" s="69">
+      <c r="L39" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M39" s="68">
+      <c r="M39" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N39" s="69">
+      <c r="N39" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2685,47 +3059,62 @@
       <c r="P39" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="S39" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T39" s="42">
+        <f t="shared" si="9"/>
+        <v>126.42857142857143</v>
+      </c>
+      <c r="U39" s="62">
+        <f t="shared" si="12"/>
+        <v>0.18061224489795918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="39">
+      <c r="C40" s="33">
         <v>420</v>
       </c>
-      <c r="D40" s="40"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="9"/>
       <c r="F40" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H40" s="69">
+      <c r="H40" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I40" s="10"/>
-      <c r="J40" s="43">
-        <f>I40/C40</f>
+      <c r="J40" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K40" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L40" s="69">
+      <c r="L40" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M40" s="68">
+      <c r="M40" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N40" s="69">
+      <c r="N40" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2733,16 +3122,31 @@
       <c r="P40" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="S40" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T40" s="42">
+        <f t="shared" si="9"/>
+        <v>208.92857142857142</v>
+      </c>
+      <c r="U40" s="62">
+        <f t="shared" si="12"/>
+        <v>0.4974489795918367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="39">
+      <c r="C41" s="33">
         <v>4</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="34">
         <v>10</v>
       </c>
       <c r="E41" s="9"/>
@@ -2750,34 +3154,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H41" s="69">
+      <c r="H41" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="10">
         <v>267</v>
       </c>
-      <c r="J41" s="43">
-        <f>I41/C41</f>
+      <c r="J41" s="37">
+        <f t="shared" si="14"/>
         <v>66.75</v>
       </c>
       <c r="K41" s="21">
         <f t="shared" si="5"/>
         <v>133.5</v>
       </c>
-      <c r="L41" s="69">
+      <c r="L41" s="62">
         <f t="shared" si="6"/>
         <v>33.375</v>
       </c>
-      <c r="M41" s="68">
+      <c r="M41" s="61">
         <f t="shared" si="7"/>
         <v>133.5</v>
       </c>
-      <c r="N41" s="69">
+      <c r="N41" s="62">
         <f t="shared" si="8"/>
         <v>33.375</v>
       </c>
@@ -2785,16 +3189,29 @@
       <c r="P41" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="9"/>
+      <c r="S41" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T41" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="39">
+      <c r="C42" s="33">
         <v>8</v>
       </c>
-      <c r="D42" s="40">
+      <c r="D42" s="34">
         <v>45</v>
       </c>
       <c r="E42" s="9"/>
@@ -2802,34 +3219,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H42" s="69">
+      <c r="H42" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="33">
         <v>240</v>
       </c>
-      <c r="J42" s="43">
-        <f>I42/C42</f>
+      <c r="J42" s="37">
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="K42" s="21">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="L42" s="69">
+      <c r="L42" s="62">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="M42" s="68">
+      <c r="M42" s="61">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="N42" s="69">
+      <c r="N42" s="62">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
@@ -2837,16 +3254,31 @@
       <c r="P42" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="S42" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T42" s="42">
+        <f t="shared" si="9"/>
+        <v>30.535714285714285</v>
+      </c>
+      <c r="U42" s="62">
+        <f t="shared" si="12"/>
+        <v>3.8169642857142856</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="39">
+      <c r="C43" s="33">
         <v>22</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="34">
         <v>40</v>
       </c>
       <c r="E43" s="9"/>
@@ -2854,34 +3286,34 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I43" s="33">
         <v>70</v>
       </c>
-      <c r="J43" s="43">
-        <f>I43/C43</f>
+      <c r="J43" s="37">
+        <f t="shared" si="14"/>
         <v>3.1818181818181817</v>
       </c>
       <c r="K43" s="21">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="L43" s="69">
+      <c r="L43" s="62">
         <f t="shared" si="6"/>
         <v>1.5909090909090908</v>
       </c>
-      <c r="M43" s="68">
+      <c r="M43" s="61">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="N43" s="69">
+      <c r="N43" s="62">
         <f t="shared" si="8"/>
         <v>1.5909090909090908</v>
       </c>
@@ -2889,16 +3321,31 @@
       <c r="P43" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="S43" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T43" s="42">
+        <f t="shared" si="9"/>
+        <v>3.214285714285714</v>
+      </c>
+      <c r="U43" s="62">
+        <f t="shared" si="12"/>
+        <v>0.1461038961038961</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="39">
+      <c r="C44" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="34">
         <v>11</v>
       </c>
       <c r="E44" s="9"/>
@@ -2906,32 +3353,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="43">
-        <f>I44/C44</f>
+      <c r="I44" s="33"/>
+      <c r="J44" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K44" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L44" s="69">
+      <c r="L44" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M44" s="68">
+      <c r="M44" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N44" s="69">
+      <c r="N44" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2939,8 +3386,23 @@
       <c r="P44" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="S44" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T44" s="42">
+        <f t="shared" si="9"/>
+        <v>2.0357142857142856</v>
+      </c>
+      <c r="U44" s="62">
+        <f t="shared" si="12"/>
+        <v>0.88509316770186341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>28</v>
       </c>
@@ -2948,40 +3410,40 @@
       <c r="C45" s="10">
         <v>900</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="34">
         <v>10000</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="43">
-        <f>I45/C45</f>
+      <c r="I45" s="33"/>
+      <c r="J45" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K45" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L45" s="69">
+      <c r="L45" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M45" s="68">
+      <c r="M45" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N45" s="69">
+      <c r="N45" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2989,8 +3451,23 @@
       <c r="P45" s="23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="35">
+        <v>0.61</v>
+      </c>
+      <c r="S45" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T45" s="42">
+        <f t="shared" si="9"/>
+        <v>6.5357142857142847</v>
+      </c>
+      <c r="U45" s="62">
+        <f t="shared" si="12"/>
+        <v>7.2619047619047611E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>29</v>
       </c>
@@ -2998,7 +3475,7 @@
       <c r="C46" s="10">
         <v>150</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="34">
         <v>1100</v>
       </c>
       <c r="E46" s="9"/>
@@ -3006,32 +3483,32 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H46" s="69">
+      <c r="H46" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="10"/>
-      <c r="J46" s="43">
-        <f>I46/C46</f>
+      <c r="J46" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K46" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L46" s="69">
+      <c r="L46" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M46" s="68">
+      <c r="M46" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N46" s="69">
+      <c r="N46" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3039,8 +3516,21 @@
       <c r="P46" s="23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="9"/>
+      <c r="S46" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T46" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>30</v>
       </c>
@@ -3049,37 +3539,37 @@
         <v>35</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G47" s="48">
+      <c r="G47" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="43">
-        <f>I47/C47</f>
+      <c r="I47" s="33"/>
+      <c r="J47" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K47" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L47" s="69">
+      <c r="L47" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M47" s="68">
+      <c r="M47" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N47" s="69">
+      <c r="N47" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3087,8 +3577,21 @@
       <c r="P47" s="23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="35"/>
+      <c r="S47" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T47" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>31</v>
       </c>
@@ -3099,37 +3602,37 @@
       <c r="D48" s="13">
         <v>2000</v>
       </c>
-      <c r="E48" s="41"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H48" s="69">
+      <c r="H48" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="43">
-        <f>I48/C48</f>
+      <c r="I48" s="33"/>
+      <c r="J48" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K48" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L48" s="69">
+      <c r="L48" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M48" s="68">
+      <c r="M48" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N48" s="69">
+      <c r="N48" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3137,8 +3640,21 @@
       <c r="P48" s="23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="35"/>
+      <c r="S48" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T48" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>32</v>
       </c>
@@ -3149,37 +3665,37 @@
       <c r="D49" s="13">
         <v>400</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H49" s="69">
+      <c r="H49" s="62">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="43">
-        <f>I49/C49</f>
+      <c r="I49" s="33"/>
+      <c r="J49" s="37">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K49" s="21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L49" s="69">
+      <c r="L49" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M49" s="68">
+      <c r="M49" s="61">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N49" s="69">
+      <c r="N49" s="62">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -3187,8 +3703,23 @@
       <c r="P49" s="23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="35">
+        <v>0.72</v>
+      </c>
+      <c r="S49" s="14" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T49" s="42">
+        <f t="shared" si="9"/>
+        <v>7.7142857142857135</v>
+      </c>
+      <c r="U49" s="62">
+        <f t="shared" si="12"/>
+        <v>0.14025974025974025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>40</v>
       </c>
@@ -3203,28 +3734,39 @@
         <v>86</v>
       </c>
       <c r="F50" s="14"/>
-      <c r="G50" s="48" t="s">
+      <c r="G50" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="69"/>
+      <c r="H50" s="62"/>
       <c r="I50" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43" t="s">
+      <c r="J50" s="37"/>
+      <c r="K50" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="L50" s="69"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="69"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="62"/>
       <c r="O50" s="23"/>
       <c r="P50" s="4"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
+      <c r="R50" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="S50" s="14"/>
+      <c r="T50" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="U50" s="62" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="63"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="12">
         <v>1.8</v>
       </c>
@@ -3239,34 +3781,34 @@
         <f>E51/D51</f>
         <v>2.0977777777777775</v>
       </c>
-      <c r="G51" s="48">
+      <c r="G51" s="42">
         <f>E51*$G$5/100</f>
         <v>0.53942857142857137</v>
       </c>
-      <c r="H51" s="69">
+      <c r="H51" s="62">
         <f>G51/D51</f>
         <v>0.59936507936507932</v>
       </c>
       <c r="I51" s="12">
         <v>3.3</v>
       </c>
-      <c r="J51" s="43">
-        <f>I51/D51</f>
+      <c r="J51" s="37">
+        <f t="shared" ref="J51:J59" si="16">I51/D51</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="K51" s="21">
         <f>I51*$K$5/100</f>
         <v>0.94285714285714273</v>
       </c>
-      <c r="L51" s="69">
+      <c r="L51" s="62">
         <f>K51/D51</f>
         <v>1.0476190476190474</v>
       </c>
-      <c r="M51" s="68">
+      <c r="M51" s="61">
         <f t="shared" si="7"/>
         <v>1.4822857142857142</v>
       </c>
-      <c r="N51" s="69">
+      <c r="N51" s="62">
         <f>M51/D51</f>
         <v>1.6469841269841268</v>
       </c>
@@ -3274,483 +3816,602 @@
       <c r="P51" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
+      <c r="R51" s="15"/>
+      <c r="S51" s="14" t="e">
+        <f>R51/Q51</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" s="42">
+        <f>R51*$G$5/100</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="12">
         <v>2.5</v>
       </c>
       <c r="D52" s="21">
-        <f t="shared" ref="D52:D59" si="9">C52/2</f>
+        <f t="shared" ref="D52:D59" si="17">C52/2</f>
         <v>1.25</v>
       </c>
       <c r="E52" s="20">
         <v>5.5839999999999996</v>
       </c>
       <c r="F52" s="14">
-        <f t="shared" ref="F52:F59" si="10">E52/D52</f>
+        <f t="shared" ref="F52:F59" si="18">E52/D52</f>
         <v>4.4672000000000001</v>
       </c>
-      <c r="G52" s="48">
-        <f t="shared" ref="G52:G59" si="11">E52*$G$5/100</f>
+      <c r="G52" s="42">
+        <f t="shared" ref="G52:G59" si="19">E52*$G$5/100</f>
         <v>1.5954285714285712</v>
       </c>
-      <c r="H52" s="69">
-        <f t="shared" ref="H52:H59" si="12">G52/D52</f>
+      <c r="H52" s="62">
+        <f t="shared" ref="H52:H59" si="20">G52/D52</f>
         <v>1.276342857142857</v>
       </c>
       <c r="I52" s="12">
         <v>3.5</v>
       </c>
-      <c r="J52" s="43">
-        <f>I52/D52</f>
+      <c r="J52" s="37">
+        <f t="shared" si="16"/>
         <v>2.8</v>
       </c>
       <c r="K52" s="21">
-        <f t="shared" ref="K52:K59" si="13">I52*$K$5/100</f>
+        <f t="shared" ref="K52:K59" si="21">I52*$K$5/100</f>
         <v>1</v>
       </c>
-      <c r="L52" s="69">
-        <f t="shared" ref="L52:L59" si="14">K52/D52</f>
+      <c r="L52" s="62">
+        <f t="shared" ref="L52:L59" si="22">K52/D52</f>
         <v>0.8</v>
       </c>
-      <c r="M52" s="68">
+      <c r="M52" s="61">
         <f t="shared" si="7"/>
         <v>2.5954285714285712</v>
       </c>
-      <c r="N52" s="69">
-        <f t="shared" ref="N52:N59" si="15">M52/D52</f>
+      <c r="N52" s="62">
+        <f t="shared" ref="N52:N59" si="23">M52/D52</f>
         <v>2.076342857142857</v>
       </c>
       <c r="O52" s="23"/>
       <c r="P52" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+      <c r="R52" s="20"/>
+      <c r="S52" s="14" t="e">
+        <f t="shared" ref="S52:S59" si="24">R52/Q52</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="42">
+        <f t="shared" ref="T52:T59" si="25">R52*$G$5/100</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="65"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="12">
         <v>5.5</v>
       </c>
       <c r="D53" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2.75</v>
       </c>
       <c r="E53" s="20">
         <v>8.6080000000000005</v>
       </c>
       <c r="F53" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.1301818181818182</v>
       </c>
-      <c r="G53" s="48">
-        <f t="shared" si="11"/>
+      <c r="G53" s="42">
+        <f t="shared" si="19"/>
         <v>2.4594285714285715</v>
       </c>
-      <c r="H53" s="69">
-        <f t="shared" si="12"/>
+      <c r="H53" s="62">
+        <f t="shared" si="20"/>
         <v>0.89433766233766232</v>
       </c>
       <c r="I53" s="16">
         <v>6.1</v>
       </c>
-      <c r="J53" s="43">
-        <f>I53/D53</f>
+      <c r="J53" s="37">
+        <f t="shared" si="16"/>
         <v>2.2181818181818183</v>
       </c>
       <c r="K53" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.7428571428571424</v>
       </c>
-      <c r="L53" s="69">
-        <f t="shared" si="14"/>
+      <c r="L53" s="62">
+        <f t="shared" si="22"/>
         <v>0.63376623376623364</v>
       </c>
-      <c r="M53" s="68">
+      <c r="M53" s="61">
         <f t="shared" si="7"/>
         <v>4.202285714285714</v>
       </c>
-      <c r="N53" s="69">
-        <f t="shared" si="15"/>
+      <c r="N53" s="62">
+        <f t="shared" si="23"/>
         <v>1.528103896103896</v>
       </c>
       <c r="O53" s="23"/>
       <c r="P53" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
+      <c r="R53" s="20"/>
+      <c r="S53" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="65"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="12">
         <v>5.0999999999999996</v>
       </c>
       <c r="D54" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="E54" s="15">
         <v>5.2640000000000002</v>
       </c>
       <c r="F54" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.0643137254901962</v>
       </c>
-      <c r="G54" s="48">
-        <f t="shared" si="11"/>
+      <c r="G54" s="42">
+        <f t="shared" si="19"/>
         <v>1.504</v>
       </c>
-      <c r="H54" s="69">
-        <f t="shared" si="12"/>
+      <c r="H54" s="62">
+        <f t="shared" si="20"/>
         <v>0.58980392156862749</v>
       </c>
       <c r="I54" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="J54" s="43">
-        <f>I54/D54</f>
+      <c r="J54" s="37">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K54" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>2.9142857142857137</v>
       </c>
-      <c r="L54" s="69">
-        <f t="shared" si="14"/>
+      <c r="L54" s="62">
+        <f t="shared" si="22"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="M54" s="68">
+      <c r="M54" s="61">
         <f t="shared" si="7"/>
         <v>4.4182857142857141</v>
       </c>
-      <c r="N54" s="69">
-        <f t="shared" si="15"/>
+      <c r="N54" s="62">
+        <f t="shared" si="23"/>
         <v>1.7326610644257703</v>
       </c>
       <c r="O54" s="23"/>
       <c r="P54" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
+      <c r="R54" s="15"/>
+      <c r="S54" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="12">
         <v>2.5</v>
       </c>
       <c r="D55" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.25</v>
       </c>
       <c r="E55" s="20">
         <v>3.1509999999999998</v>
       </c>
       <c r="F55" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.5207999999999999</v>
       </c>
-      <c r="G55" s="48">
-        <f t="shared" si="11"/>
+      <c r="G55" s="42">
+        <f t="shared" si="19"/>
         <v>0.90028571428571413</v>
       </c>
-      <c r="H55" s="69">
-        <f t="shared" si="12"/>
+      <c r="H55" s="62">
+        <f t="shared" si="20"/>
         <v>0.72022857142857133</v>
       </c>
       <c r="I55" s="17">
         <v>1.6</v>
       </c>
-      <c r="J55" s="43">
-        <f>I55/D55</f>
+      <c r="J55" s="37">
+        <f t="shared" si="16"/>
         <v>1.28</v>
       </c>
       <c r="K55" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.45714285714285713</v>
       </c>
-      <c r="L55" s="69">
-        <f t="shared" si="14"/>
+      <c r="L55" s="62">
+        <f t="shared" si="22"/>
         <v>0.36571428571428571</v>
       </c>
-      <c r="M55" s="68">
+      <c r="M55" s="61">
         <f t="shared" si="7"/>
         <v>1.3574285714285712</v>
       </c>
-      <c r="N55" s="69">
-        <f t="shared" si="15"/>
+      <c r="N55" s="62">
+        <f t="shared" si="23"/>
         <v>1.0859428571428569</v>
       </c>
       <c r="O55" s="23"/>
       <c r="P55" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
+      <c r="R55" s="20"/>
+      <c r="S55" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T55" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="65"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="12">
         <v>4.7</v>
       </c>
       <c r="D56" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>2.35</v>
       </c>
       <c r="E56" s="20">
         <v>9.3279999999999994</v>
       </c>
       <c r="F56" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.9693617021276593</v>
       </c>
-      <c r="G56" s="48">
-        <f t="shared" si="11"/>
+      <c r="G56" s="42">
+        <f t="shared" si="19"/>
         <v>2.6651428571428566</v>
       </c>
-      <c r="H56" s="69">
-        <f t="shared" si="12"/>
+      <c r="H56" s="62">
+        <f t="shared" si="20"/>
         <v>1.1341033434650454</v>
       </c>
       <c r="I56" s="12">
         <v>5.6</v>
       </c>
-      <c r="J56" s="43">
-        <f>I56/D56</f>
+      <c r="J56" s="37">
+        <f t="shared" si="16"/>
         <v>2.3829787234042552</v>
       </c>
       <c r="K56" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="L56" s="69">
-        <f t="shared" si="14"/>
+      <c r="L56" s="62">
+        <f t="shared" si="22"/>
         <v>0.68085106382978711</v>
       </c>
-      <c r="M56" s="68">
+      <c r="M56" s="61">
         <f t="shared" si="7"/>
         <v>4.2651428571428562</v>
       </c>
-      <c r="N56" s="69">
-        <f t="shared" si="15"/>
+      <c r="N56" s="62">
+        <f t="shared" si="23"/>
         <v>1.8149544072948323</v>
       </c>
       <c r="O56" s="23"/>
       <c r="P56" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+      <c r="R56" s="20"/>
+      <c r="S56" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="65"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="12">
         <v>2.7</v>
       </c>
       <c r="D57" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.35</v>
       </c>
       <c r="E57" s="20">
         <v>5.1680000000000001</v>
       </c>
       <c r="F57" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.8281481481481481</v>
       </c>
-      <c r="G57" s="48">
-        <f t="shared" si="11"/>
+      <c r="G57" s="42">
+        <f t="shared" si="19"/>
         <v>1.4765714285714284</v>
       </c>
-      <c r="H57" s="69">
-        <f t="shared" si="12"/>
+      <c r="H57" s="62">
+        <f t="shared" si="20"/>
         <v>1.0937566137566135</v>
       </c>
       <c r="I57" s="12">
         <v>2.9</v>
       </c>
-      <c r="J57" s="43">
-        <f>I57/D57</f>
+      <c r="J57" s="37">
+        <f t="shared" si="16"/>
         <v>2.1481481481481479</v>
       </c>
       <c r="K57" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.82857142857142851</v>
       </c>
-      <c r="L57" s="69">
-        <f t="shared" si="14"/>
+      <c r="L57" s="62">
+        <f t="shared" si="22"/>
         <v>0.61375661375661372</v>
       </c>
-      <c r="M57" s="68">
+      <c r="M57" s="61">
         <f t="shared" si="7"/>
         <v>2.3051428571428572</v>
       </c>
-      <c r="N57" s="69">
-        <f t="shared" si="15"/>
+      <c r="N57" s="62">
+        <f t="shared" si="23"/>
         <v>1.7075132275132274</v>
       </c>
       <c r="O57" s="23"/>
       <c r="P57" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
+      <c r="R57" s="20"/>
+      <c r="S57" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="65"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="12">
         <v>0.7</v>
       </c>
       <c r="D58" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>0.35</v>
       </c>
       <c r="E58" s="20">
         <v>1.6160000000000001</v>
       </c>
       <c r="F58" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4.6171428571428574</v>
       </c>
-      <c r="G58" s="48">
-        <f t="shared" si="11"/>
+      <c r="G58" s="42">
+        <f t="shared" si="19"/>
         <v>0.46171428571428569</v>
       </c>
-      <c r="H58" s="69">
-        <f t="shared" si="12"/>
+      <c r="H58" s="62">
+        <f t="shared" si="20"/>
         <v>1.3191836734693878</v>
       </c>
       <c r="I58" s="12">
         <v>2.1</v>
       </c>
-      <c r="J58" s="43">
-        <f>I58/D58</f>
+      <c r="J58" s="37">
+        <f t="shared" si="16"/>
         <v>6.0000000000000009</v>
       </c>
       <c r="K58" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.6</v>
       </c>
-      <c r="L58" s="69">
-        <f t="shared" si="14"/>
+      <c r="L58" s="62">
+        <f t="shared" si="22"/>
         <v>1.7142857142857144</v>
       </c>
-      <c r="M58" s="68">
+      <c r="M58" s="61">
         <f t="shared" si="7"/>
         <v>1.0617142857142856</v>
       </c>
-      <c r="N58" s="69">
-        <f t="shared" si="15"/>
+      <c r="N58" s="62">
+        <f t="shared" si="23"/>
         <v>3.033469387755102</v>
       </c>
       <c r="O58" s="23"/>
       <c r="P58" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+      <c r="R58" s="20"/>
+      <c r="S58" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="65"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="12">
         <v>3.2</v>
       </c>
       <c r="D59" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1.6</v>
       </c>
       <c r="E59" s="20">
         <v>6.1109999999999998</v>
       </c>
       <c r="F59" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>3.8193749999999995</v>
       </c>
-      <c r="G59" s="48">
-        <f t="shared" si="11"/>
+      <c r="G59" s="42">
+        <f t="shared" si="19"/>
         <v>1.746</v>
       </c>
-      <c r="H59" s="69">
-        <f t="shared" si="12"/>
+      <c r="H59" s="62">
+        <f t="shared" si="20"/>
         <v>1.0912499999999998</v>
       </c>
       <c r="I59" s="12">
         <v>5.5</v>
       </c>
-      <c r="J59" s="43">
-        <f>I59/D59</f>
+      <c r="J59" s="37">
+        <f t="shared" si="16"/>
         <v>3.4375</v>
       </c>
       <c r="K59" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="L59" s="69">
-        <f t="shared" si="14"/>
+      <c r="L59" s="62">
+        <f t="shared" si="22"/>
         <v>0.9821428571428571</v>
       </c>
-      <c r="M59" s="68">
+      <c r="M59" s="61">
         <f t="shared" si="7"/>
         <v>3.3174285714285716</v>
       </c>
-      <c r="N59" s="69">
-        <f t="shared" si="15"/>
+      <c r="N59" s="62">
+        <f t="shared" si="23"/>
         <v>2.0733928571428573</v>
       </c>
       <c r="O59" s="23"/>
       <c r="P59" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="7:16" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="R59" s="20"/>
+      <c r="S59" s="14" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" s="42">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="7:21" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="N76" s="23"/>
       <c r="O76" s="23"/>
       <c r="P76" s="23"/>
-    </row>
-    <row r="77" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T76" s="63"/>
+      <c r="U76" s="63"/>
+    </row>
+    <row r="77" spans="7:21" x14ac:dyDescent="0.25">
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:21" x14ac:dyDescent="0.25">
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:21" x14ac:dyDescent="0.25">
       <c r="N79" s="23"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:21" x14ac:dyDescent="0.25">
       <c r="N80" s="23"/>
       <c r="O80" s="23"/>
     </row>
@@ -3818,173 +4479,213 @@
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
     </row>
-    <row r="97" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
     </row>
-    <row r="98" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
     </row>
-    <row r="99" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
       <c r="P99" s="23"/>
-    </row>
-    <row r="100" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T99" s="63"/>
+      <c r="U99" s="63"/>
+    </row>
+    <row r="100" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
     </row>
-    <row r="101" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
     </row>
-    <row r="102" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
     </row>
-    <row r="103" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
     </row>
-    <row r="104" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
     </row>
-    <row r="105" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:21" x14ac:dyDescent="0.25">
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
     </row>
-    <row r="106" spans="5:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G106" s="23"/>
       <c r="H106" s="23"/>
       <c r="N106" s="23"/>
       <c r="O106" s="23"/>
       <c r="P106" s="23"/>
-    </row>
-    <row r="107" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E107" s="55"/>
-      <c r="F107" s="56"/>
+      <c r="T106" s="63"/>
+      <c r="U106" s="63"/>
+    </row>
+    <row r="107" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E107" s="48"/>
+      <c r="F107" s="49"/>
       <c r="G107" s="23"/>
       <c r="H107" s="23"/>
       <c r="N107" s="23"/>
       <c r="O107" s="23"/>
       <c r="P107" s="23"/>
-    </row>
-    <row r="108" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="R107" s="48"/>
+      <c r="S107" s="49"/>
+      <c r="T107" s="63"/>
+      <c r="U107" s="63"/>
+    </row>
+    <row r="108" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G108" s="23"/>
       <c r="H108" s="23"/>
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
       <c r="P108" s="23"/>
-    </row>
-    <row r="109" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T108" s="63"/>
+      <c r="U108" s="63"/>
+    </row>
+    <row r="109" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G109" s="23"/>
       <c r="H109" s="23"/>
       <c r="N109" s="23"/>
       <c r="O109" s="23"/>
       <c r="P109" s="23"/>
-    </row>
-    <row r="110" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T109" s="63"/>
+      <c r="U109" s="63"/>
+    </row>
+    <row r="110" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
       <c r="N110" s="23"/>
       <c r="O110" s="23"/>
       <c r="P110" s="23"/>
-    </row>
-    <row r="111" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T110" s="63"/>
+      <c r="U110" s="63"/>
+    </row>
+    <row r="111" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G111" s="23"/>
       <c r="H111" s="23"/>
       <c r="N111" s="23"/>
       <c r="O111" s="23"/>
       <c r="P111" s="23"/>
-    </row>
-    <row r="112" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T111" s="63"/>
+      <c r="U111" s="63"/>
+    </row>
+    <row r="112" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G112" s="23"/>
       <c r="H112" s="23"/>
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
       <c r="P112" s="23"/>
-    </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T112" s="63"/>
+      <c r="U112" s="63"/>
+    </row>
+    <row r="113" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="N113" s="23"/>
       <c r="O113" s="23"/>
       <c r="P113" s="23"/>
-    </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T113" s="63"/>
+      <c r="U113" s="63"/>
+    </row>
+    <row r="114" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G114" s="23"/>
       <c r="H114" s="23"/>
       <c r="N114" s="23"/>
       <c r="O114" s="23"/>
       <c r="P114" s="23"/>
-    </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T114" s="63"/>
+      <c r="U114" s="63"/>
+    </row>
+    <row r="115" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G115" s="23"/>
       <c r="H115" s="23"/>
       <c r="N115" s="23"/>
       <c r="O115" s="23"/>
       <c r="P115" s="23"/>
-    </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T115" s="63"/>
+      <c r="U115" s="63"/>
+    </row>
+    <row r="116" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G116" s="23"/>
       <c r="H116" s="23"/>
       <c r="N116" s="23"/>
       <c r="O116" s="23"/>
       <c r="P116" s="23"/>
-    </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T116" s="63"/>
+      <c r="U116" s="63"/>
+    </row>
+    <row r="117" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G117" s="23"/>
       <c r="H117" s="23"/>
       <c r="N117" s="23"/>
       <c r="O117" s="23"/>
       <c r="P117" s="23"/>
-    </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T117" s="63"/>
+      <c r="U117" s="63"/>
+    </row>
+    <row r="118" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G118" s="23"/>
       <c r="H118" s="23"/>
       <c r="N118" s="23"/>
       <c r="O118" s="23"/>
       <c r="P118" s="23"/>
-    </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T118" s="63"/>
+      <c r="U118" s="63"/>
+    </row>
+    <row r="119" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G119" s="23"/>
       <c r="H119" s="23"/>
       <c r="N119" s="23"/>
       <c r="O119" s="23"/>
       <c r="P119" s="23"/>
-    </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T119" s="63"/>
+      <c r="U119" s="63"/>
+    </row>
+    <row r="120" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G120" s="23"/>
       <c r="H120" s="23"/>
       <c r="N120" s="23"/>
       <c r="O120" s="23"/>
       <c r="P120" s="23"/>
-    </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T120" s="63"/>
+      <c r="U120" s="63"/>
+    </row>
+    <row r="121" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G121" s="23"/>
       <c r="H121" s="23"/>
       <c r="N121" s="23"/>
       <c r="O121" s="23"/>
       <c r="P121" s="23"/>
-    </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E122" s="57"/>
-      <c r="F122" s="57"/>
+      <c r="T121" s="63"/>
+      <c r="U121" s="63"/>
+    </row>
+    <row r="122" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
       <c r="G122" s="23"/>
       <c r="H122" s="23"/>
       <c r="N122" s="23"/>
       <c r="O122" s="23"/>
       <c r="P122" s="23"/>
-    </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E123" s="55" t="s">
+      <c r="R122" s="50"/>
+      <c r="S122" s="50"/>
+      <c r="T122" s="63"/>
+      <c r="U122" s="63"/>
+    </row>
+    <row r="123" spans="5:21" ht="24" x14ac:dyDescent="0.25">
+      <c r="E123" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F123" s="56" t="s">
+      <c r="F123" s="49" t="s">
         <v>51</v>
       </c>
       <c r="G123" s="23"/>
@@ -3992,149 +4693,225 @@
       <c r="N123" s="23"/>
       <c r="O123" s="23"/>
       <c r="P123" s="23"/>
-    </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E124" s="55" t="s">
+      <c r="R123" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="S123" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="T123" s="63"/>
+      <c r="U123" s="63"/>
+    </row>
+    <row r="124" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E124" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F124" s="58" t="s">
+      <c r="F124" s="51" t="s">
         <v>53</v>
       </c>
       <c r="G124" s="23"/>
       <c r="H124" s="23"/>
-      <c r="I124" s="59">
+      <c r="I124" s="52">
         <v>0.12</v>
       </c>
       <c r="N124" s="23"/>
       <c r="O124" s="23"/>
       <c r="P124" s="23"/>
-    </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E125" s="55" t="s">
+      <c r="R124" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S124" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="T124" s="63"/>
+      <c r="U124" s="63"/>
+    </row>
+    <row r="125" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E125" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F125" s="58" t="s">
+      <c r="F125" s="51" t="s">
         <v>54</v>
       </c>
       <c r="G125" s="23"/>
       <c r="H125" s="23"/>
-      <c r="I125" s="59">
+      <c r="I125" s="52">
         <v>2.19</v>
       </c>
       <c r="N125" s="23"/>
       <c r="O125" s="23"/>
       <c r="P125" s="23"/>
-    </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E126" s="55" t="s">
+      <c r="R125" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="S125" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="T125" s="63"/>
+      <c r="U125" s="63"/>
+    </row>
+    <row r="126" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E126" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F126" s="58" t="s">
+      <c r="F126" s="51" t="s">
         <v>55</v>
       </c>
       <c r="G126" s="23"/>
       <c r="H126" s="23"/>
-      <c r="I126" s="59">
+      <c r="I126" s="52">
         <v>0.55000000000000004</v>
       </c>
       <c r="N126" s="23"/>
       <c r="O126" s="23"/>
       <c r="P126" s="23"/>
-    </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E127" s="55" t="s">
+      <c r="R126" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="S126" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="T126" s="63"/>
+      <c r="U126" s="63"/>
+    </row>
+    <row r="127" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E127" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="58" t="s">
+      <c r="F127" s="51" t="s">
         <v>56</v>
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="23"/>
-      <c r="I127" s="59">
+      <c r="I127" s="52">
         <v>0.9</v>
       </c>
       <c r="N127" s="23"/>
       <c r="O127" s="23"/>
       <c r="P127" s="23"/>
-    </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E128" s="55" t="s">
+      <c r="R127" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="S127" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="T127" s="63"/>
+      <c r="U127" s="63"/>
+    </row>
+    <row r="128" spans="5:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="E128" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F128" s="58" t="s">
+      <c r="F128" s="51" t="s">
         <v>57</v>
       </c>
       <c r="G128" s="23"/>
       <c r="H128" s="23"/>
-      <c r="I128" s="59">
+      <c r="I128" s="52">
         <v>0.17</v>
       </c>
       <c r="N128" s="23"/>
       <c r="O128" s="23"/>
       <c r="P128" s="23"/>
-    </row>
-    <row r="129" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E129" s="55" t="s">
+      <c r="R128" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="S128" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="T128" s="63"/>
+      <c r="U128" s="63"/>
+    </row>
+    <row r="129" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E129" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="58" t="s">
+      <c r="F129" s="51" t="s">
         <v>58</v>
       </c>
       <c r="G129" s="23"/>
       <c r="H129" s="23"/>
-      <c r="I129" s="59">
+      <c r="I129" s="52">
         <v>0.28999999999999998</v>
       </c>
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
       <c r="P129" s="23"/>
-    </row>
-    <row r="130" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E130" s="55" t="s">
+      <c r="R129" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="S129" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="T129" s="63"/>
+      <c r="U129" s="63"/>
+    </row>
+    <row r="130" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E130" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F130" s="58" t="s">
+      <c r="F130" s="51" t="s">
         <v>59</v>
       </c>
       <c r="G130" s="23"/>
       <c r="H130" s="23"/>
-      <c r="I130" s="59">
+      <c r="I130" s="52">
         <v>0.7</v>
       </c>
       <c r="N130" s="23"/>
       <c r="O130" s="23"/>
       <c r="P130" s="23"/>
-    </row>
-    <row r="131" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E131" s="55" t="s">
+      <c r="R130" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="S130" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="T130" s="63"/>
+      <c r="U130" s="63"/>
+    </row>
+    <row r="131" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E131" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F131" s="58" t="s">
+      <c r="F131" s="51" t="s">
         <v>60</v>
       </c>
       <c r="G131" s="23"/>
       <c r="H131" s="23"/>
-      <c r="I131" s="59">
+      <c r="I131" s="52">
         <v>0.21</v>
       </c>
       <c r="N131" s="23"/>
       <c r="O131" s="23"/>
       <c r="P131" s="23"/>
-    </row>
-    <row r="132" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
+      <c r="R131" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="S131" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="T131" s="63"/>
+      <c r="U131" s="63"/>
+    </row>
+    <row r="132" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
       <c r="G132" s="23"/>
       <c r="H132" s="23"/>
       <c r="N132" s="23"/>
       <c r="O132" s="23"/>
       <c r="P132" s="23"/>
-    </row>
-    <row r="133" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E133" s="60" t="s">
+      <c r="R132" s="50"/>
+      <c r="S132" s="50"/>
+      <c r="T132" s="63"/>
+      <c r="U132" s="63"/>
+    </row>
+    <row r="133" spans="5:21" ht="24" x14ac:dyDescent="0.25">
+      <c r="E133" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F133" s="56" t="s">
+      <c r="F133" s="49" t="s">
         <v>62</v>
       </c>
       <c r="G133" s="23"/>
@@ -4142,12 +4919,20 @@
       <c r="N133" s="23"/>
       <c r="O133" s="23"/>
       <c r="P133" s="23"/>
-    </row>
-    <row r="134" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E134" s="61" t="s">
+      <c r="R133" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="S133" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="T133" s="63"/>
+      <c r="U133" s="63"/>
+    </row>
+    <row r="134" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E134" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F134" s="58" t="s">
+      <c r="F134" s="51" t="s">
         <v>63</v>
       </c>
       <c r="G134" s="23"/>
@@ -4155,183 +4940,241 @@
       <c r="N134" s="23"/>
       <c r="O134" s="23"/>
       <c r="P134" s="23"/>
-    </row>
-    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="R134" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="S134" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="T134" s="63"/>
+      <c r="U134" s="63"/>
+    </row>
+    <row r="135" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G135" s="23"/>
       <c r="H135" s="23"/>
       <c r="N135" s="23"/>
       <c r="O135" s="23"/>
       <c r="P135" s="23"/>
-    </row>
-    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T135" s="63"/>
+      <c r="U135" s="63"/>
+    </row>
+    <row r="136" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G136" s="23"/>
       <c r="H136" s="23"/>
       <c r="N136" s="23"/>
       <c r="O136" s="23"/>
       <c r="P136" s="23"/>
-    </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T136" s="63"/>
+      <c r="U136" s="63"/>
+    </row>
+    <row r="137" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G137" s="23"/>
       <c r="H137" s="23"/>
       <c r="N137" s="23"/>
       <c r="O137" s="23"/>
       <c r="P137" s="23"/>
-    </row>
-    <row r="138" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T137" s="63"/>
+      <c r="U137" s="63"/>
+    </row>
+    <row r="138" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G138" s="23"/>
       <c r="H138" s="23"/>
       <c r="N138" s="23"/>
       <c r="O138" s="23"/>
       <c r="P138" s="23"/>
-    </row>
-    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T138" s="63"/>
+      <c r="U138" s="63"/>
+    </row>
+    <row r="139" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G139" s="23"/>
       <c r="H139" s="23"/>
       <c r="N139" s="23"/>
       <c r="O139" s="23"/>
       <c r="P139" s="23"/>
-    </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T139" s="63"/>
+      <c r="U139" s="63"/>
+    </row>
+    <row r="140" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G140" s="23"/>
       <c r="H140" s="23"/>
       <c r="N140" s="23"/>
       <c r="O140" s="23"/>
       <c r="P140" s="23"/>
-    </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T140" s="63"/>
+      <c r="U140" s="63"/>
+    </row>
+    <row r="141" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="N141" s="23"/>
       <c r="O141" s="23"/>
       <c r="P141" s="23"/>
-    </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T141" s="63"/>
+      <c r="U141" s="63"/>
+    </row>
+    <row r="142" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G142" s="23"/>
       <c r="H142" s="23"/>
       <c r="N142" s="23"/>
       <c r="O142" s="23"/>
       <c r="P142" s="23"/>
-    </row>
-    <row r="143" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T142" s="63"/>
+      <c r="U142" s="63"/>
+    </row>
+    <row r="143" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G143" s="23"/>
       <c r="H143" s="23"/>
       <c r="N143" s="23"/>
       <c r="O143" s="23"/>
       <c r="P143" s="23"/>
-    </row>
-    <row r="144" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="T143" s="63"/>
+      <c r="U143" s="63"/>
+    </row>
+    <row r="144" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G144" s="23"/>
       <c r="H144" s="23"/>
       <c r="N144" s="23"/>
       <c r="O144" s="23"/>
       <c r="P144" s="23"/>
-    </row>
-    <row r="145" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T144" s="63"/>
+      <c r="U144" s="63"/>
+    </row>
+    <row r="145" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G145" s="23"/>
       <c r="H145" s="23"/>
       <c r="N145" s="23"/>
       <c r="O145" s="23"/>
       <c r="P145" s="23"/>
-    </row>
-    <row r="146" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T145" s="63"/>
+      <c r="U145" s="63"/>
+    </row>
+    <row r="146" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G146" s="23"/>
       <c r="H146" s="23"/>
       <c r="N146" s="23"/>
       <c r="O146" s="23"/>
       <c r="P146" s="23"/>
-    </row>
-    <row r="147" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T146" s="63"/>
+      <c r="U146" s="63"/>
+    </row>
+    <row r="147" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G147" s="23"/>
       <c r="H147" s="23"/>
       <c r="N147" s="23"/>
       <c r="O147" s="23"/>
       <c r="P147" s="23"/>
-    </row>
-    <row r="148" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T147" s="63"/>
+      <c r="U147" s="63"/>
+    </row>
+    <row r="148" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G148" s="23"/>
       <c r="H148" s="23"/>
       <c r="N148" s="23"/>
       <c r="O148" s="23"/>
       <c r="P148" s="23"/>
-    </row>
-    <row r="149" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T148" s="63"/>
+      <c r="U148" s="63"/>
+    </row>
+    <row r="149" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G149" s="23"/>
       <c r="H149" s="23"/>
       <c r="N149" s="23"/>
       <c r="O149" s="23"/>
       <c r="P149" s="23"/>
-    </row>
-    <row r="150" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T149" s="63"/>
+      <c r="U149" s="63"/>
+    </row>
+    <row r="150" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G150" s="23"/>
       <c r="H150" s="23"/>
       <c r="N150" s="23"/>
       <c r="O150" s="23"/>
       <c r="P150" s="23"/>
-    </row>
-    <row r="151" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T150" s="63"/>
+      <c r="U150" s="63"/>
+    </row>
+    <row r="151" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G151" s="23"/>
       <c r="H151" s="23"/>
       <c r="N151" s="23"/>
       <c r="O151" s="23"/>
       <c r="P151" s="23"/>
-    </row>
-    <row r="152" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T151" s="63"/>
+      <c r="U151" s="63"/>
+    </row>
+    <row r="152" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G152" s="23"/>
       <c r="H152" s="23"/>
       <c r="N152" s="23"/>
       <c r="O152" s="23"/>
       <c r="P152" s="23"/>
-    </row>
-    <row r="153" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T152" s="63"/>
+      <c r="U152" s="63"/>
+    </row>
+    <row r="153" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G153" s="23"/>
       <c r="H153" s="23"/>
       <c r="N153" s="23"/>
       <c r="O153" s="23"/>
       <c r="P153" s="23"/>
-    </row>
-    <row r="154" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T153" s="63"/>
+      <c r="U153" s="63"/>
+    </row>
+    <row r="154" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G154" s="23"/>
       <c r="H154" s="23"/>
       <c r="N154" s="23"/>
       <c r="O154" s="23"/>
       <c r="P154" s="23"/>
-    </row>
-    <row r="155" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T154" s="63"/>
+      <c r="U154" s="63"/>
+    </row>
+    <row r="155" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G155" s="23"/>
       <c r="H155" s="23"/>
       <c r="N155" s="23"/>
       <c r="O155" s="23"/>
       <c r="P155" s="23"/>
-    </row>
-    <row r="156" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T155" s="63"/>
+      <c r="U155" s="63"/>
+    </row>
+    <row r="156" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G156" s="23"/>
       <c r="H156" s="23"/>
       <c r="N156" s="23"/>
       <c r="O156" s="23"/>
       <c r="P156" s="23"/>
-    </row>
-    <row r="157" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T156" s="63"/>
+      <c r="U156" s="63"/>
+    </row>
+    <row r="157" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G157" s="23"/>
       <c r="H157" s="23"/>
       <c r="N157" s="23"/>
       <c r="O157" s="23"/>
       <c r="P157" s="23"/>
-    </row>
-    <row r="158" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T157" s="63"/>
+      <c r="U157" s="63"/>
+    </row>
+    <row r="158" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G158" s="23"/>
       <c r="H158" s="23"/>
       <c r="N158" s="23"/>
       <c r="O158" s="23"/>
       <c r="P158" s="23"/>
-    </row>
-    <row r="159" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T158" s="63"/>
+      <c r="U158" s="63"/>
+    </row>
+    <row r="159" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G159" s="23"/>
       <c r="H159" s="23"/>
       <c r="N159" s="23"/>
       <c r="O159" s="23"/>
       <c r="P159" s="23"/>
-    </row>
-    <row r="160" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T159" s="63"/>
+      <c r="U159" s="63"/>
+    </row>
+    <row r="160" spans="7:21" x14ac:dyDescent="0.25">
       <c r="N160" s="23"/>
       <c r="O160" s="23"/>
     </row>
@@ -4388,7 +5231,8 @@
       <c r="O173" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:H1"/>
@@ -4396,39 +5240,64 @@
     <mergeCell ref="A19:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="N19">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:N59">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L59">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19:H59">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U59">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>